--- a/Source/Html/document/DTCareer.xlsx
+++ b/Source/Html/document/DTCareer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>职业ID</t>
   </si>
@@ -27,6 +27,9 @@
     <t>职业说明</t>
   </si>
   <si>
+    <t>年龄</t>
+  </si>
+  <si>
     <t>智力</t>
   </si>
   <si>
@@ -57,52 +60,58 @@
     <t>威望</t>
   </si>
   <si>
+    <t>条件函数</t>
+  </si>
+  <si>
     <t>概率[条件不满足时]</t>
   </si>
   <si>
-    <t>学徒时间</t>
-  </si>
-  <si>
-    <t>学徒费用</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>经验函数</t>
-  </si>
-  <si>
-    <t>收入函数</t>
-  </si>
-  <si>
-    <t>智力函数</t>
-  </si>
-  <si>
-    <t>人际函数</t>
-  </si>
-  <si>
-    <t>才艺函数</t>
-  </si>
-  <si>
-    <t>财商函数</t>
-  </si>
-  <si>
-    <t>精力函数</t>
-  </si>
-  <si>
-    <t>颜值函数</t>
-  </si>
-  <si>
-    <t>幸福度函数</t>
-  </si>
-  <si>
-    <t>健康度函数</t>
-  </si>
-  <si>
-    <t>社会联系函数</t>
-  </si>
-  <si>
-    <t>威望函数</t>
+    <t>失败产出函数</t>
+  </si>
+  <si>
+    <t>学徒经验</t>
+  </si>
+  <si>
+    <t>最大经验</t>
+  </si>
+  <si>
+    <t>产出函数</t>
+  </si>
+  <si>
+    <t>经验产出</t>
+  </si>
+  <si>
+    <t>收入产出</t>
+  </si>
+  <si>
+    <t>智力产出</t>
+  </si>
+  <si>
+    <t>人际产出</t>
+  </si>
+  <si>
+    <t>才艺产出</t>
+  </si>
+  <si>
+    <t>财商产出</t>
+  </si>
+  <si>
+    <t>精力产出</t>
+  </si>
+  <si>
+    <t>颜值产出</t>
+  </si>
+  <si>
+    <t>幸福度产出</t>
+  </si>
+  <si>
+    <t>健康度产出</t>
+  </si>
+  <si>
+    <t>社会联系产出</t>
+  </si>
+  <si>
+    <t>威望产出</t>
   </si>
   <si>
     <t>id</t>
@@ -114,6 +123,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>iq</t>
   </si>
   <si>
@@ -144,16 +156,22 @@
     <t>prestige</t>
   </si>
   <si>
+    <t>cndFunc</t>
+  </si>
+  <si>
     <t>cndprobability</t>
   </si>
   <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>duration</t>
+    <t>failedFunc</t>
+  </si>
+  <si>
+    <t>expTraining</t>
+  </si>
+  <si>
+    <t>expMax</t>
+  </si>
+  <si>
+    <t>outFunc</t>
   </si>
   <si>
     <t>exp</t>
@@ -169,6 +187,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>pkey</t>
   </si>
   <si>
     <t>cndarr</t>
@@ -222,8 +243,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,45 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,21 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -312,59 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -381,13 +402,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,157 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,26 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,30 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -717,6 +699,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -725,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1242,26 +1263,29 @@
     <col min="1" max="1" width="8.23008849557522" customWidth="1"/>
     <col min="2" max="2" width="11.0176991150442" customWidth="1"/>
     <col min="3" max="3" width="14.0619469026549" customWidth="1"/>
-    <col min="4" max="8" width="6.53097345132743" customWidth="1"/>
-    <col min="9" max="9" width="8.28318584070797" customWidth="1"/>
-    <col min="10" max="10" width="7.50442477876106" customWidth="1"/>
-    <col min="11" max="11" width="10.5929203539823" customWidth="1"/>
-    <col min="12" max="12" width="9.49557522123894" customWidth="1"/>
-    <col min="13" max="13" width="12.7964601769912" customWidth="1"/>
-    <col min="14" max="14" width="19.3628318584071" customWidth="1"/>
-    <col min="15" max="15" width="8.70796460176991" customWidth="1"/>
-    <col min="16" max="16" width="10.9380530973451" customWidth="1"/>
-    <col min="17" max="17" width="11.4070796460177" customWidth="1"/>
-    <col min="18" max="18" width="7.1858407079646" customWidth="1"/>
-    <col min="19" max="19" width="14.3185840707965" customWidth="1"/>
-    <col min="20" max="20" width="11.8495575221239" customWidth="1"/>
-    <col min="26" max="26" width="11.4955752212389" customWidth="1"/>
-    <col min="27" max="27" width="13.6725663716814" customWidth="1"/>
-    <col min="28" max="28" width="12.8141592920354" customWidth="1"/>
-    <col min="29" max="29" width="18.5044247787611" customWidth="1"/>
+    <col min="4" max="4" width="9.46017699115044" customWidth="1"/>
+    <col min="5" max="9" width="6.53097345132743" customWidth="1"/>
+    <col min="10" max="10" width="8.28318584070797" customWidth="1"/>
+    <col min="11" max="11" width="7.50442477876106" customWidth="1"/>
+    <col min="12" max="12" width="9.13274336283186" customWidth="1"/>
+    <col min="13" max="13" width="9.21238938053097" customWidth="1"/>
+    <col min="14" max="14" width="9.84955752212389" customWidth="1"/>
+    <col min="15" max="15" width="11.0176991150442" customWidth="1"/>
+    <col min="16" max="16" width="18.4336283185841" customWidth="1"/>
+    <col min="17" max="17" width="16.9469026548673" customWidth="1"/>
+    <col min="18" max="18" width="16.2566371681416" customWidth="1"/>
+    <col min="19" max="19" width="12.3362831858407" customWidth="1"/>
+    <col min="20" max="20" width="13.2743362831858" customWidth="1"/>
+    <col min="21" max="21" width="14.9911504424779" customWidth="1"/>
+    <col min="22" max="22" width="14.3185840707965" customWidth="1"/>
+    <col min="23" max="23" width="11.8495575221239" customWidth="1"/>
+    <col min="29" max="29" width="11.4955752212389" customWidth="1"/>
+    <col min="30" max="30" width="13.6725663716814" customWidth="1"/>
+    <col min="31" max="31" width="12.8141592920354" customWidth="1"/>
+    <col min="32" max="32" width="18.5044247787611" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:29">
+    <row r="1" ht="14.25" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,300 +1373,326 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:32">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:32">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1</v>
       </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6">
+        <v>65</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
+      <c r="S6">
         <v>36</v>
       </c>
     </row>

--- a/Source/Html/document/DTCareer.xlsx
+++ b/Source/Html/document/DTCareer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>职业ID</t>
   </si>
@@ -27,6 +27,12 @@
     <t>职业说明</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>工作地点</t>
+  </si>
+  <si>
     <t>年龄</t>
   </si>
   <si>
@@ -66,6 +72,9 @@
     <t>概率[条件不满足时]</t>
   </si>
   <si>
+    <t>条件满足后概率</t>
+  </si>
+  <si>
     <t>失败产出函数</t>
   </si>
   <si>
@@ -123,6 +132,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>workPlace</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -162,6 +177,9 @@
     <t>cndprobability</t>
   </si>
   <si>
+    <t>probability</t>
+  </si>
+  <si>
     <t>failedFunc</t>
   </si>
   <si>
@@ -195,7 +213,7 @@
     <t>cndarr</t>
   </si>
   <si>
-    <t>funcarr</t>
+    <t>outarr</t>
   </si>
   <si>
     <t>p_1</t>
@@ -243,6 +261,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -251,88 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -342,23 +384,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,22 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -402,37 +420,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,25 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,114 +600,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -641,11 +659,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color theme="6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,7 +702,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,15 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,6 +742,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,137 +789,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,7 +929,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1252,40 +1289,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.23008849557522" customWidth="1"/>
-    <col min="2" max="2" width="11.0176991150442" customWidth="1"/>
-    <col min="3" max="3" width="14.0619469026549" customWidth="1"/>
-    <col min="4" max="4" width="9.46017699115044" customWidth="1"/>
-    <col min="5" max="9" width="6.53097345132743" customWidth="1"/>
-    <col min="10" max="10" width="8.28318584070797" customWidth="1"/>
-    <col min="11" max="11" width="7.50442477876106" customWidth="1"/>
-    <col min="12" max="12" width="9.13274336283186" customWidth="1"/>
-    <col min="13" max="13" width="9.21238938053097" customWidth="1"/>
-    <col min="14" max="14" width="9.84955752212389" customWidth="1"/>
-    <col min="15" max="15" width="11.0176991150442" customWidth="1"/>
-    <col min="16" max="16" width="18.4336283185841" customWidth="1"/>
-    <col min="17" max="17" width="16.9469026548673" customWidth="1"/>
-    <col min="18" max="18" width="16.2566371681416" customWidth="1"/>
-    <col min="19" max="19" width="12.3362831858407" customWidth="1"/>
-    <col min="20" max="20" width="13.2743362831858" customWidth="1"/>
-    <col min="21" max="21" width="14.9911504424779" customWidth="1"/>
-    <col min="22" max="22" width="14.3185840707965" customWidth="1"/>
-    <col min="23" max="23" width="11.8495575221239" customWidth="1"/>
-    <col min="29" max="29" width="11.4955752212389" customWidth="1"/>
-    <col min="30" max="30" width="13.6725663716814" customWidth="1"/>
-    <col min="31" max="31" width="12.8141592920354" customWidth="1"/>
-    <col min="32" max="32" width="18.5044247787611" customWidth="1"/>
+    <col min="1" max="1" width="12.2654867256637" customWidth="1"/>
+    <col min="2" max="2" width="13.9911504424779" customWidth="1"/>
+    <col min="3" max="5" width="14.0619469026549" customWidth="1"/>
+    <col min="6" max="6" width="9.46017699115044" customWidth="1"/>
+    <col min="7" max="11" width="6.53097345132743" customWidth="1"/>
+    <col min="12" max="12" width="8.28318584070797" customWidth="1"/>
+    <col min="13" max="13" width="7.50442477876106" customWidth="1"/>
+    <col min="14" max="14" width="9.13274336283186" customWidth="1"/>
+    <col min="15" max="15" width="9.21238938053097" customWidth="1"/>
+    <col min="16" max="16" width="9.84955752212389" customWidth="1"/>
+    <col min="17" max="17" width="11.0176991150442" customWidth="1"/>
+    <col min="18" max="19" width="20.929203539823" customWidth="1"/>
+    <col min="20" max="20" width="16.9469026548673" customWidth="1"/>
+    <col min="21" max="21" width="16.2566371681416" customWidth="1"/>
+    <col min="22" max="22" width="12.3362831858407" customWidth="1"/>
+    <col min="23" max="23" width="13.2743362831858" customWidth="1"/>
+    <col min="24" max="24" width="14.9911504424779" customWidth="1"/>
+    <col min="25" max="25" width="14.3185840707965" customWidth="1"/>
+    <col min="26" max="26" width="11.8495575221239" customWidth="1"/>
+    <col min="32" max="32" width="11.4955752212389" customWidth="1"/>
+    <col min="33" max="33" width="13.6725663716814" customWidth="1"/>
+    <col min="34" max="34" width="12.8141592920354" customWidth="1"/>
+    <col min="35" max="35" width="18.5044247787611" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:32">
+    <row r="1" ht="14.25" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,317 +1419,349 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" ht="14.25" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>55</v>
+    <row r="3" spans="1:35">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>59</v>
+    <row r="4" spans="1:35">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>1</v>
       </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6">
+        <v>71</v>
+      </c>
+      <c r="U6">
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>36</v>
       </c>
     </row>

--- a/Source/Html/document/DTCareer.xlsx
+++ b/Source/Html/document/DTCareer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>职业ID</t>
   </si>
@@ -84,6 +84,12 @@
     <t>最大经验</t>
   </si>
   <si>
+    <t>学徒消耗金钱</t>
+  </si>
+  <si>
+    <t>学徒产出函数</t>
+  </si>
+  <si>
     <t>产出函数</t>
   </si>
   <si>
@@ -187,6 +193,12 @@
   </si>
   <si>
     <t>expMax</t>
+  </si>
+  <si>
+    <t>costTraining</t>
+  </si>
+  <si>
+    <t>trainingFunc</t>
   </si>
   <si>
     <t>outFunc</t>
@@ -261,6 +273,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -270,135 +411,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -420,13 +432,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,169 +504,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +684,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -689,6 +710,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -698,20 +728,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,21 +781,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,133 +801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1307,22 +1319,25 @@
     <col min="14" max="14" width="9.13274336283186" customWidth="1"/>
     <col min="15" max="15" width="9.21238938053097" customWidth="1"/>
     <col min="16" max="16" width="9.84955752212389" customWidth="1"/>
-    <col min="17" max="17" width="11.0176991150442" customWidth="1"/>
-    <col min="18" max="19" width="20.929203539823" customWidth="1"/>
+    <col min="17" max="17" width="11.8672566371681" customWidth="1"/>
+    <col min="18" max="18" width="19.7610619469027" customWidth="1"/>
+    <col min="19" max="19" width="15.6194690265487" customWidth="1"/>
     <col min="20" max="20" width="16.9469026548673" customWidth="1"/>
-    <col min="21" max="21" width="16.2566371681416" customWidth="1"/>
-    <col min="22" max="22" width="12.3362831858407" customWidth="1"/>
-    <col min="23" max="23" width="13.2743362831858" customWidth="1"/>
-    <col min="24" max="24" width="14.9911504424779" customWidth="1"/>
-    <col min="25" max="25" width="14.3185840707965" customWidth="1"/>
-    <col min="26" max="26" width="11.8495575221239" customWidth="1"/>
-    <col min="32" max="32" width="11.4955752212389" customWidth="1"/>
-    <col min="33" max="33" width="13.6725663716814" customWidth="1"/>
-    <col min="34" max="34" width="12.8141592920354" customWidth="1"/>
-    <col min="35" max="35" width="18.5044247787611" customWidth="1"/>
+    <col min="21" max="21" width="13.9026548672566" customWidth="1"/>
+    <col min="22" max="22" width="12.6548672566372" customWidth="1"/>
+    <col min="23" max="23" width="15.6283185840708" customWidth="1"/>
+    <col min="24" max="24" width="17.0265486725664" customWidth="1"/>
+    <col min="25" max="25" width="15.4690265486726" customWidth="1"/>
+    <col min="26" max="26" width="14.9911504424779" customWidth="1"/>
+    <col min="27" max="27" width="14.3185840707965" customWidth="1"/>
+    <col min="28" max="28" width="11.8495575221239" customWidth="1"/>
+    <col min="34" max="34" width="11.4955752212389" customWidth="1"/>
+    <col min="35" max="35" width="13.6725663716814" customWidth="1"/>
+    <col min="36" max="36" width="12.8141592920354" customWidth="1"/>
+    <col min="37" max="37" width="18.5044247787611" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:35">
+    <row r="1" ht="14.25" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,88 +1443,94 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:35">
+    <row r="2" ht="14.25" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>43</v>
@@ -1535,154 +1556,166 @@
       <c r="AI2" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="AJ2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:37">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:37">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -1691,72 +1724,74 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U6">
         <v>0</v>
